--- a/data/DTL.xlsx
+++ b/data/DTL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>DTL</t>
@@ -22314,7 +22314,7 @@
         <v>-4.303554206E9</v>
       </c>
       <c r="AM12" s="21" t="n">
-        <v>-3.20592619E9</v>
+        <v>-4.318598134E9</v>
       </c>
       <c r="AN12" s="21" t="n">
         <v>-3.0598993948E10</v>
@@ -22436,7 +22436,7 @@
         <v>1.6028112048E10</v>
       </c>
       <c r="AM13" s="21" t="n">
-        <v>1.4434765206E10</v>
+        <v>1.6228492516E10</v>
       </c>
       <c r="AN13" s="21" t="n">
         <v>1.2254021421E10</v>
@@ -22680,7 +22680,7 @@
         <v>-1.345672022E9</v>
       </c>
       <c r="AM15" s="21" t="n">
-        <v>0.0</v>
+        <v>3.495508342E9</v>
       </c>
       <c r="AN15" s="21" t="n">
         <v>0.0</v>
@@ -22802,7 +22802,7 @@
         <v>0.0</v>
       </c>
       <c r="AM16" s="21" t="n">
-        <v>3.470700076E9</v>
+        <v>1.639027612E9</v>
       </c>
       <c r="AN16" s="21" t="n">
         <v>1.33950039E8</v>
@@ -23046,7 +23046,7 @@
         <v>-1.8124999876E10</v>
       </c>
       <c r="AM18" s="21" t="n">
-        <v>-3.4155044784E10</v>
+        <v>-6.3613595005E10</v>
       </c>
       <c r="AN18" s="21" t="n">
         <v>-1.4E8</v>
@@ -23168,7 +23168,7 @@
         <v>1.6871459241E10</v>
       </c>
       <c r="AM19" s="21" t="n">
-        <v>1.6450645325E10</v>
+        <v>1.9158708859E10</v>
       </c>
       <c r="AN19" s="21" t="n">
         <v>1.6319992214E10</v>
@@ -23412,7 +23412,7 @@
         <v>0.0</v>
       </c>
       <c r="AM21" s="21" t="n">
-        <v>0.0</v>
+        <v>2.91474645E8</v>
       </c>
       <c r="AN21" s="21" t="n">
         <v>0.0</v>
@@ -23534,7 +23534,7 @@
         <v>6.5009230909E10</v>
       </c>
       <c r="AM22" s="21" t="n">
-        <v>-8.2788610094E10</v>
+        <v>-7.8404597392E10</v>
       </c>
       <c r="AN22" s="21" t="n">
         <v>1.69083377E9</v>
@@ -23656,7 +23656,7 @@
         <v>9.125345185E9</v>
       </c>
       <c r="AM23" s="21" t="n">
-        <v>-3.004860367E9</v>
+        <v>-2.7118981165E10</v>
       </c>
       <c r="AN23" s="21" t="n">
         <v>-2.031030274E9</v>
@@ -23778,7 +23778,7 @@
         <v>-2.81539818705E11</v>
       </c>
       <c r="AM24" s="21" t="n">
-        <v>2.906337236E10</v>
+        <v>1.88099197854E11</v>
       </c>
       <c r="AN24" s="21" t="n">
         <v>9.3047197076E10</v>
@@ -23900,7 +23900,7 @@
         <v>-5.819180393E9</v>
       </c>
       <c r="AM25" s="21" t="n">
-        <v>4.5159898578E10</v>
+        <v>4.5850599251E10</v>
       </c>
       <c r="AN25" s="21" t="n">
         <v>1.7780603118E10</v>
@@ -24022,7 +24022,7 @@
         <v>4.14341824202E11</v>
       </c>
       <c r="AM26" s="21" t="n">
-        <v>-1.18853886898E11</v>
+        <v>-2.96613634739E11</v>
       </c>
       <c r="AN26" s="21" t="n">
         <v>-7.6449853495E10</v>
@@ -24144,7 +24144,7 @@
         <v>8.04529875E8</v>
       </c>
       <c r="AM27" s="21" t="n">
-        <v>-5.47875626E8</v>
+        <v>-5.54839122E8</v>
       </c>
       <c r="AN27" s="21" t="n">
         <v>9.89718742E8</v>
@@ -24388,7 +24388,7 @@
         <v>-1.6659940896E10</v>
       </c>
       <c r="AM29" s="21" t="n">
-        <v>-1.6262971277E10</v>
+        <v>-1.6262983426E10</v>
       </c>
       <c r="AN29" s="21" t="n">
         <v>-1.6253133216E10</v>
@@ -24754,7 +24754,7 @@
         <v>-2.9578278886E10</v>
       </c>
       <c r="AM32" s="21" t="n">
-        <v>-1.7155851933E10</v>
+        <v>2.9382478886E10</v>
       </c>
       <c r="AN32" s="21" t="n">
         <v>-1.5392668181E10</v>
@@ -24876,7 +24876,7 @@
         <v>-8.7501439813E10</v>
       </c>
       <c r="AM33" s="21" t="n">
-        <v>1.02690603337E11</v>
+        <v>9.8973159076E10</v>
       </c>
       <c r="AN33" s="21" t="n">
         <v>-8.322307369E9</v>
@@ -24998,7 +24998,7 @@
         <v>-1.64478639352E11</v>
       </c>
       <c r="AM34" s="21" t="n">
-        <v>5.690603337E9</v>
+        <v>4.4604847075E10</v>
       </c>
       <c r="AN34" s="21" t="n">
         <v>-8.462307369E9</v>
@@ -25120,7 +25120,7 @@
         <v>7.6977199539E10</v>
       </c>
       <c r="AM35" s="21" t="n">
-        <v>9.7E10</v>
+        <v>5.4358251652E10</v>
       </c>
       <c r="AN35" s="21" t="n">
         <v>1.4E8</v>
@@ -25242,7 +25242,7 @@
         <v>-8.0E9</v>
       </c>
       <c r="AM36" s="21" t="n">
-        <v>0.0</v>
+        <v>8.005E9</v>
       </c>
       <c r="AN36" s="21" t="n">
         <v>0.0</v>
@@ -25364,7 +25364,7 @@
         <v>8.0E9</v>
       </c>
       <c r="AM37" s="21" t="n">
-        <v>0.0</v>
+        <v>-8.0E9</v>
       </c>
       <c r="AN37" s="21" t="n">
         <v>0.0</v>
@@ -25730,7 +25730,7 @@
         <v>0.0</v>
       </c>
       <c r="AM40" s="21" t="n">
-        <v>0.0</v>
+        <v>5060349.0</v>
       </c>
       <c r="AN40" s="21" t="n">
         <v>0.0</v>
@@ -25852,7 +25852,7 @@
         <v>2.3165773344E10</v>
       </c>
       <c r="AM41" s="21" t="n">
-        <v>-1.4400079528E10</v>
+        <v>-1.9933555763E10</v>
       </c>
       <c r="AN41" s="21" t="n">
         <v>1.0256913933E10</v>
@@ -26218,7 +26218,7 @@
         <v>5.57134302313E11</v>
       </c>
       <c r="AM44" s="21" t="n">
-        <v>5.07109229473E11</v>
+        <v>5.07104838534E11</v>
       </c>
       <c r="AN44" s="21" t="n">
         <v>4.07096761799E11</v>
@@ -26340,7 +26340,7 @@
         <v>-5.33968528969E11</v>
       </c>
       <c r="AM45" s="21" t="n">
-        <v>-5.21509309001E11</v>
+        <v>-5.21509306001E11</v>
       </c>
       <c r="AN45" s="21" t="n">
         <v>-3.96839847866E11</v>
@@ -26462,7 +26462,7 @@
         <v>0.0</v>
       </c>
       <c r="AM46" s="21" t="n">
-        <v>0.0</v>
+        <v>-5.529088296E9</v>
       </c>
       <c r="AN46" s="21" t="n">
         <v>0.0</v>
@@ -26828,7 +26828,7 @@
         <v>6.7356444E8</v>
       </c>
       <c r="AM49" s="21" t="n">
-        <v>5.501913715E9</v>
+        <v>6.35005921E8</v>
       </c>
       <c r="AN49" s="21" t="n">
         <v>3.625440334E9</v>
@@ -27072,7 +27072,7 @@
         <v>0.0</v>
       </c>
       <c r="AM51" s="21" t="n">
-        <v>-3.470700076E9</v>
+        <v>1.652967252E9</v>
       </c>
       <c r="AN51" s="21" t="n">
         <v>-1.33950039E8</v>
@@ -27194,7 +27194,7 @@
         <v>2.225647476E9</v>
       </c>
       <c r="AM52" s="21" t="n">
-        <v>4.256861115E9</v>
+        <v>4.513620649E9</v>
       </c>
       <c r="AN52" s="21" t="n">
         <v>7.6724335E9</v>
@@ -27513,7 +27513,7 @@
         <v>2.590784781E10</v>
       </c>
       <c r="I12" s="25" t="n">
-        <v>4.256861115E9</v>
+        <v>4.513620649E9</v>
       </c>
       <c r="K12" s="25" t="n">
         <v>4.8841945282E10</v>
@@ -27609,7 +27609,7 @@
         <v>2.225647476E9</v>
       </c>
       <c r="AP12" s="25" t="n">
-        <v>4.256861115E9</v>
+        <v>4.513620649E9</v>
       </c>
       <c r="AQ12" s="25" t="n">
         <v>7.6724335E9</v>
@@ -27647,7 +27647,7 @@
         <v>2.590784781E10</v>
       </c>
       <c r="I13" s="25" t="n">
-        <v>4.256861115E9</v>
+        <v>8.64258E7</v>
       </c>
       <c r="K13" s="25" t="n">
         <v>1.3958883867E10</v>
@@ -27743,7 +27743,7 @@
         <v>2.225647476E9</v>
       </c>
       <c r="AP13" s="25" t="n">
-        <v>4.256861115E9</v>
+        <v>8.64258E7</v>
       </c>
       <c r="AQ13" s="25" t="n">
         <v>7.6724335E9</v>
@@ -27781,7 +27781,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="25" t="n">
-        <v>0.0</v>
+        <v>4.427194849E9</v>
       </c>
       <c r="K14" s="25" t="n">
         <v>3.4883061415E10</v>
@@ -27877,7 +27877,7 @@
         <v>0.0</v>
       </c>
       <c r="AP14" s="25" t="n">
-        <v>0.0</v>
+        <v>4.427194849E9</v>
       </c>
       <c r="AQ14" s="25" t="n">
         <v>0.0</v>
@@ -28183,7 +28183,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="25" t="n">
-        <v>0.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="K17" s="25" t="n">
         <v>0.0</v>
@@ -28279,7 +28279,7 @@
         <v>0.0</v>
       </c>
       <c r="AP17" s="25" t="n">
-        <v>0.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="AQ17" s="25" t="n">
         <v>0.0</v>
@@ -28451,7 +28451,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="25" t="n">
-        <v>0.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="K19" s="25" t="n">
         <v>0.0</v>
@@ -28547,7 +28547,7 @@
         <v>0.0</v>
       </c>
       <c r="AP19" s="25" t="n">
-        <v>0.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="AQ19" s="25" t="n">
         <v>0.0</v>
@@ -28585,7 +28585,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="25" t="n">
-        <v>0.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="K20" s="25" t="n">
         <v>0.0</v>
@@ -28681,7 +28681,7 @@
         <v>0.0</v>
       </c>
       <c r="AP20" s="25" t="n">
-        <v>0.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="AQ20" s="25" t="n">
         <v>0.0</v>
@@ -29121,7 +29121,7 @@
         <v>1.2865812407E10</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>5.869561312E9</v>
+        <v>1.3623288741E10</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>5.1102436159E10</v>
@@ -29217,7 +29217,7 @@
         <v>2.8628278622E10</v>
       </c>
       <c r="AP24" s="25" t="n">
-        <v>5.869561312E9</v>
+        <v>1.3623288741E10</v>
       </c>
       <c r="AQ24" s="25" t="n">
         <v>1.874895905E10</v>
@@ -29657,7 +29657,7 @@
         <v>1.2865812407E10</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>5.869561312E9</v>
+        <v>1.3623288741E10</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>5.1102436159E10</v>
@@ -29753,7 +29753,7 @@
         <v>2.8628278622E10</v>
       </c>
       <c r="AP28" s="25" t="n">
-        <v>5.869561312E9</v>
+        <v>1.3623288741E10</v>
       </c>
       <c r="AQ28" s="25" t="n">
         <v>1.874895905E10</v>
@@ -29791,7 +29791,7 @@
         <v>1.100963044837E12</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>1.102730726424E12</v>
+        <v>1.124486627087E12</v>
       </c>
       <c r="K29" s="25" t="n">
         <v>1.453516425594E12</v>
@@ -29887,7 +29887,7 @@
         <v>1.147890625002E12</v>
       </c>
       <c r="AP29" s="25" t="n">
-        <v>1.102730726424E12</v>
+        <v>1.124486627087E12</v>
       </c>
       <c r="AQ29" s="25" t="n">
         <v>1.085077618249E12</v>
@@ -30059,7 +30059,7 @@
         <v>2.82622843542E11</v>
       </c>
       <c r="I31" s="25" t="n">
-        <v>2.00619875285E11</v>
+        <v>1.99915024536E11</v>
       </c>
       <c r="K31" s="25" t="n">
         <v>3.57791704655E11</v>
@@ -30155,7 +30155,7 @@
         <v>2.41938450764E11</v>
       </c>
       <c r="AP31" s="25" t="n">
-        <v>2.00619875285E11</v>
+        <v>1.99915024536E11</v>
       </c>
       <c r="AQ31" s="25" t="n">
         <v>1.76786861092E11</v>
@@ -30193,7 +30193,7 @@
         <v>5.9556734424E10</v>
       </c>
       <c r="I32" s="25" t="n">
-        <v>6.147096642E10</v>
+        <v>6.0974681926E10</v>
       </c>
       <c r="K32" s="25" t="n">
         <v>6.6711126192E10</v>
@@ -30289,7 +30289,7 @@
         <v>5.5429826962E10</v>
       </c>
       <c r="AP32" s="25" t="n">
-        <v>6.147096642E10</v>
+        <v>6.0974681926E10</v>
       </c>
       <c r="AQ32" s="25" t="n">
         <v>6.3518305968E10</v>
@@ -30327,7 +30327,7 @@
         <v>4.681452503E9</v>
       </c>
       <c r="I33" s="25" t="n">
-        <v>8.536101132E9</v>
+        <v>8.365993923E9</v>
       </c>
       <c r="K33" s="25" t="n">
         <v>7.116717745E9</v>
@@ -30423,7 +30423,7 @@
         <v>3.001116817E9</v>
       </c>
       <c r="AP33" s="25" t="n">
-        <v>8.536101132E9</v>
+        <v>8.365993923E9</v>
       </c>
       <c r="AQ33" s="25" t="n">
         <v>3.837926359E9</v>
@@ -30461,7 +30461,7 @@
         <v>3.62207885732E11</v>
       </c>
       <c r="I34" s="25" t="n">
-        <v>3.49046829948E11</v>
+        <v>3.49380989963E11</v>
       </c>
       <c r="K34" s="25" t="n">
         <v>6.7799919107E11</v>
@@ -30557,7 +30557,7 @@
         <v>4.03994815902E11</v>
       </c>
       <c r="AP34" s="25" t="n">
-        <v>3.49046829948E11</v>
+        <v>3.49380989963E11</v>
       </c>
       <c r="AQ34" s="25" t="n">
         <v>3.68173560168E11</v>
@@ -30595,7 +30595,7 @@
         <v>3.91894128636E11</v>
       </c>
       <c r="I35" s="25" t="n">
-        <v>4.83056953639E11</v>
+        <v>5.05849936739E11</v>
       </c>
       <c r="K35" s="25" t="n">
         <v>3.41951057814E11</v>
@@ -30691,7 +30691,7 @@
         <v>4.43526414557E11</v>
       </c>
       <c r="AP35" s="25" t="n">
-        <v>4.83056953639E11</v>
+        <v>5.05849936739E11</v>
       </c>
       <c r="AQ35" s="25" t="n">
         <v>4.72760964662E11</v>
@@ -32471,7 +32471,7 @@
         <v>7.04943176713E11</v>
       </c>
       <c r="I49" s="25" t="n">
-        <v>6.1479632964E11</v>
+        <v>6.07244785074E11</v>
       </c>
       <c r="K49" s="25" t="n">
         <v>9.72409776415E11</v>
@@ -32567,7 +32567,7 @@
         <v>7.59019975918E11</v>
       </c>
       <c r="AP49" s="25" t="n">
-        <v>6.1479632964E11</v>
+        <v>6.07244785074E11</v>
       </c>
       <c r="AQ49" s="25" t="n">
         <v>6.1454082964E11</v>
@@ -32873,7 +32873,7 @@
         <v>-5.08426429448E11</v>
       </c>
       <c r="I52" s="25" t="n">
-        <v>-1.99465127013E11</v>
+        <v>-2.07016671579E11</v>
       </c>
       <c r="K52" s="25" t="n">
         <v>-9.208531128E9</v>
@@ -32969,7 +32969,7 @@
         <v>-3.6264872756E10</v>
       </c>
       <c r="AP52" s="25" t="n">
-        <v>-1.99465127013E11</v>
+        <v>-2.07016671579E11</v>
       </c>
       <c r="AQ52" s="25" t="n">
         <v>-2.555E8</v>
@@ -33007,7 +33007,7 @@
         <v>4.30910847097E11</v>
       </c>
       <c r="I53" s="25" t="n">
-        <v>3.2184580438E11</v>
+        <v>3.17903396047E11</v>
       </c>
       <c r="K53" s="25" t="n">
         <v>3.0241846511E11</v>
@@ -33103,7 +33103,7 @@
         <v>4.39678011485E11</v>
       </c>
       <c r="AP53" s="25" t="n">
-        <v>3.2184580438E11</v>
+        <v>3.17903396047E11</v>
       </c>
       <c r="AQ53" s="25" t="n">
         <v>3.32521768571E11</v>
@@ -33275,7 +33275,7 @@
         <v>4.1971505189E10</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>5.4799101113E10</v>
+        <v>5.5082239517E10</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>2.580395505E10</v>
@@ -33371,7 +33371,7 @@
         <v>4.1111103356E10</v>
       </c>
       <c r="AP55" s="25" t="n">
-        <v>5.4799101113E10</v>
+        <v>5.5082239517E10</v>
       </c>
       <c r="AQ55" s="25" t="n">
         <v>1.4873872524E10</v>
@@ -33409,7 +33409,7 @@
         <v>-4.90433675855E11</v>
       </c>
       <c r="I56" s="25" t="n">
-        <v>-1.67271439559E11</v>
+        <v>-1.71496986296E11</v>
       </c>
       <c r="K56" s="25" t="n">
         <v>-9.547165117E9</v>
@@ -33505,7 +33505,7 @@
         <v>-3.5751234697E10</v>
       </c>
       <c r="AP56" s="25" t="n">
-        <v>-1.67271439559E11</v>
+        <v>-1.71496986296E11</v>
       </c>
       <c r="AQ56" s="25" t="n">
         <v>-2.555E8</v>
@@ -33543,7 +33543,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="25" t="n">
-        <v>0.0</v>
+        <v>3.0730344077E10</v>
       </c>
       <c r="K57" s="25" t="n">
         <v>0.0</v>
@@ -33639,7 +33639,7 @@
         <v>0.0</v>
       </c>
       <c r="AP57" s="25" t="n">
-        <v>0.0</v>
+        <v>3.0730344077E10</v>
       </c>
       <c r="AQ57" s="25" t="n">
         <v>0.0</v>
@@ -33677,7 +33677,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="25" t="n">
-        <v>0.0</v>
+        <v>3.0730344077E10</v>
       </c>
       <c r="K58" s="25" t="n">
         <v>0.0</v>
@@ -33773,7 +33773,7 @@
         <v>0.0</v>
       </c>
       <c r="AP58" s="25" t="n">
-        <v>0.0</v>
+        <v>3.0730344077E10</v>
       </c>
       <c r="AQ58" s="25" t="n">
         <v>0.0</v>
@@ -34079,7 +34079,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4353367395E10</v>
       </c>
       <c r="K61" s="25" t="n">
         <v>0.0</v>
@@ -34175,7 +34175,7 @@
         <v>0.0</v>
       </c>
       <c r="AP61" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4353367395E10</v>
       </c>
       <c r="AQ61" s="25" t="n">
         <v>0.0</v>
@@ -34213,7 +34213,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="25" t="n">
-        <v>0.0</v>
+        <v>8.404431885E9</v>
       </c>
       <c r="K62" s="25" t="n">
         <v>0.0</v>
@@ -34309,7 +34309,7 @@
         <v>0.0</v>
       </c>
       <c r="AP62" s="25" t="n">
-        <v>0.0</v>
+        <v>8.404431885E9</v>
       </c>
       <c r="AQ62" s="25" t="n">
         <v>0.0</v>
@@ -34347,7 +34347,7 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="25" t="n">
-        <v>0.0</v>
+        <v>5.94893551E9</v>
       </c>
       <c r="K63" s="25" t="n">
         <v>0.0</v>
@@ -34443,7 +34443,7 @@
         <v>0.0</v>
       </c>
       <c r="AP63" s="25" t="n">
-        <v>0.0</v>
+        <v>5.94893551E9</v>
       </c>
       <c r="AQ63" s="25" t="n">
         <v>0.0</v>
@@ -34615,7 +34615,7 @@
         <v>1.181552773E10</v>
       </c>
       <c r="I65" s="25" t="n">
-        <v>1.181552773E10</v>
+        <v>5.748E8</v>
       </c>
       <c r="K65" s="25" t="n">
         <v>1.382202673E10</v>
@@ -34711,7 +34711,7 @@
         <v>1.181552773E10</v>
       </c>
       <c r="AP65" s="25" t="n">
-        <v>1.181552773E10</v>
+        <v>5.748E8</v>
       </c>
       <c r="AQ65" s="25" t="n">
         <v>0.0</v>
@@ -35017,7 +35017,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.124072773E10</v>
       </c>
       <c r="K68" s="25" t="n">
         <v>0.0</v>
@@ -35113,7 +35113,7 @@
         <v>0.0</v>
       </c>
       <c r="AP68" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.124072773E10</v>
       </c>
       <c r="AQ68" s="25" t="n">
         <v>0.0</v>
@@ -35151,7 +35151,7 @@
         <v>5.542866695E9</v>
       </c>
       <c r="I69" s="25" t="n">
-        <v>5.828560403E9</v>
+        <v>5.748E8</v>
       </c>
       <c r="K69" s="25" t="n">
         <v>3.187995669E9</v>
@@ -35247,7 +35247,7 @@
         <v>5.757136976E9</v>
       </c>
       <c r="AP69" s="25" t="n">
-        <v>5.828560403E9</v>
+        <v>5.748E8</v>
       </c>
       <c r="AQ69" s="25" t="n">
         <v>0.0</v>
@@ -35553,7 +35553,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="25" t="n">
-        <v>0.0</v>
+        <v>-5.253760403E9</v>
       </c>
       <c r="K72" s="25" t="n">
         <v>0.0</v>
@@ -35649,7 +35649,7 @@
         <v>0.0</v>
       </c>
       <c r="AP72" s="25" t="n">
-        <v>0.0</v>
+        <v>-5.253760403E9</v>
       </c>
       <c r="AQ72" s="25" t="n">
         <v>0.0</v>
@@ -36491,7 +36491,7 @@
         <v>9.84272655877E11</v>
       </c>
       <c r="I79" s="25" t="n">
-        <v>8.68021044412E11</v>
+        <v>9.11439331454E11</v>
       </c>
       <c r="K79" s="25" t="n">
         <v>9.86413476481E11</v>
@@ -36587,7 +36587,7 @@
         <v>8.75203396014E11</v>
       </c>
       <c r="AP79" s="25" t="n">
-        <v>8.68021044412E11</v>
+        <v>9.11439331454E11</v>
       </c>
       <c r="AQ79" s="25" t="n">
         <v>8.52445686271E11</v>
@@ -36625,7 +36625,7 @@
         <v>9.84272655877E11</v>
       </c>
       <c r="I80" s="25" t="n">
-        <v>8.68021044412E11</v>
+        <v>9.05910243158E11</v>
       </c>
       <c r="K80" s="25" t="n">
         <v>8.87909065179E11</v>
@@ -36721,7 +36721,7 @@
         <v>8.75203396014E11</v>
       </c>
       <c r="AP80" s="25" t="n">
-        <v>8.68021044412E11</v>
+        <v>9.05910243158E11</v>
       </c>
       <c r="AQ80" s="25" t="n">
         <v>8.52445686271E11</v>
@@ -36759,7 +36759,7 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="25" t="n">
-        <v>0.0</v>
+        <v>5.529088296E9</v>
       </c>
       <c r="K81" s="25" t="n">
         <v>9.8504411302E10</v>
@@ -36855,7 +36855,7 @@
         <v>0.0</v>
       </c>
       <c r="AP81" s="25" t="n">
-        <v>0.0</v>
+        <v>5.529088296E9</v>
       </c>
       <c r="AQ81" s="25" t="n">
         <v>0.0</v>
@@ -37965,7 +37965,7 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>0.0</v>
+        <v>6.543721009E9</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>8.08879644E8</v>
@@ -38061,7 +38061,7 @@
         <v>0.0</v>
       </c>
       <c r="AP90" s="25" t="n">
-        <v>0.0</v>
+        <v>6.543721009E9</v>
       </c>
       <c r="AQ90" s="25" t="n">
         <v>3.32897901E9</v>
@@ -38099,7 +38099,7 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="25" t="n">
-        <v>0.0</v>
+        <v>5.873652341E9</v>
       </c>
       <c r="K91" s="25" t="n">
         <v>0.0</v>
@@ -38195,7 +38195,7 @@
         <v>0.0</v>
       </c>
       <c r="AP91" s="25" t="n">
-        <v>0.0</v>
+        <v>5.873652341E9</v>
       </c>
       <c r="AQ91" s="25" t="n">
         <v>3.32897901E9</v>
@@ -38501,7 +38501,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>0.0</v>
+        <v>4.0541329E7</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>0.0</v>
@@ -38597,7 +38597,7 @@
         <v>0.0</v>
       </c>
       <c r="AP94" s="25" t="n">
-        <v>0.0</v>
+        <v>4.0541329E7</v>
       </c>
       <c r="AQ94" s="25" t="n">
         <v>0.0</v>
@@ -38635,7 +38635,7 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="25" t="n">
-        <v>0.0</v>
+        <v>3.2219617E7</v>
       </c>
       <c r="K95" s="25" t="n">
         <v>0.0</v>
@@ -38731,7 +38731,7 @@
         <v>0.0</v>
       </c>
       <c r="AP95" s="25" t="n">
-        <v>0.0</v>
+        <v>3.2219617E7</v>
       </c>
       <c r="AQ95" s="25" t="n">
         <v>0.0</v>
@@ -39037,7 +39037,7 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="25" t="n">
-        <v>0.0</v>
+        <v>5.97307722E8</v>
       </c>
       <c r="K98" s="25" t="n">
         <v>0.0</v>
@@ -39133,7 +39133,7 @@
         <v>0.0</v>
       </c>
       <c r="AP98" s="25" t="n">
-        <v>0.0</v>
+        <v>5.97307722E8</v>
       </c>
       <c r="AQ98" s="25" t="n">
         <v>0.0</v>
@@ -39305,7 +39305,7 @@
         <v>1.4766623666E10</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>0.0</v>
+        <v>1.838698249E10</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>1.0217764053E10</v>
@@ -39401,7 +39401,7 @@
         <v>0.0</v>
       </c>
       <c r="AP100" s="25" t="n">
-        <v>0.0</v>
+        <v>1.838698249E10</v>
       </c>
       <c r="AQ100" s="25" t="n">
         <v>0.0</v>
@@ -39841,7 +39841,7 @@
         <v>1.4766623666E10</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>0.0</v>
+        <v>1.838698249E10</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>1.0217764053E10</v>
@@ -39937,7 +39937,7 @@
         <v>0.0</v>
       </c>
       <c r="AP104" s="25" t="n">
-        <v>0.0</v>
+        <v>1.838698249E10</v>
       </c>
       <c r="AQ104" s="25" t="n">
         <v>0.0</v>
@@ -39975,7 +39975,7 @@
         <v>5.416114105E9</v>
       </c>
       <c r="I105" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4037251703E10</v>
       </c>
       <c r="K105" s="25" t="n">
         <v>2.1136393334E10</v>
@@ -40071,7 +40071,7 @@
         <v>0.0</v>
       </c>
       <c r="AP105" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4037251703E10</v>
       </c>
       <c r="AQ105" s="25" t="n">
         <v>0.0</v>
@@ -41181,7 +41181,7 @@
         <v>5.416114105E9</v>
       </c>
       <c r="I114" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4037251703E10</v>
       </c>
       <c r="K114" s="25" t="n">
         <v>2.1136393334E10</v>
@@ -41277,7 +41277,7 @@
         <v>0.0</v>
       </c>
       <c r="AP114" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4037251703E10</v>
       </c>
       <c r="AQ114" s="25" t="n">
         <v>0.0</v>
@@ -41315,7 +41315,7 @@
         <v>1.7103274E7</v>
       </c>
       <c r="I115" s="25" t="n">
-        <v>4.7565103274E10</v>
+        <v>4.146816232E9</v>
       </c>
       <c r="K115" s="25" t="n">
         <v>0.0</v>
@@ -41411,7 +41411,7 @@
         <v>5.6165103274E10</v>
       </c>
       <c r="AP115" s="25" t="n">
-        <v>4.7565103274E10</v>
+        <v>4.146816232E9</v>
       </c>
       <c r="AQ115" s="25" t="n">
         <v>7.2015103274E10</v>
@@ -41449,7 +41449,7 @@
         <v>1.7103274E7</v>
       </c>
       <c r="I116" s="25" t="n">
-        <v>4.7565103274E10</v>
+        <v>0.0</v>
       </c>
       <c r="K116" s="25" t="n">
         <v>0.0</v>
@@ -41545,7 +41545,7 @@
         <v>5.6165103274E10</v>
       </c>
       <c r="AP116" s="25" t="n">
-        <v>4.7565103274E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ116" s="25" t="n">
         <v>7.2015103274E10</v>
@@ -41851,7 +41851,7 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="25" t="n">
-        <v>0.0</v>
+        <v>4.146816232E9</v>
       </c>
       <c r="K119" s="25" t="n">
         <v>0.0</v>
@@ -41947,7 +41947,7 @@
         <v>0.0</v>
       </c>
       <c r="AP119" s="25" t="n">
-        <v>0.0</v>
+        <v>4.146816232E9</v>
       </c>
       <c r="AQ119" s="25" t="n">
         <v>0.0</v>
@@ -42119,7 +42119,7 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="25" t="n">
-        <v>0.0</v>
+        <v>6.1435604E11</v>
       </c>
       <c r="K121" s="25" t="n">
         <v>0.0</v>
@@ -42215,7 +42215,7 @@
         <v>0.0</v>
       </c>
       <c r="AP121" s="25" t="n">
-        <v>0.0</v>
+        <v>6.1435604E11</v>
       </c>
       <c r="AQ121" s="25" t="n">
         <v>0.0</v>
@@ -42387,7 +42387,7 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="25" t="n">
-        <v>0.0</v>
+        <v>6.1435604E11</v>
       </c>
       <c r="K123" s="25" t="n">
         <v>0.0</v>
@@ -42483,7 +42483,7 @@
         <v>0.0</v>
       </c>
       <c r="AP123" s="25" t="n">
-        <v>0.0</v>
+        <v>6.1435604E11</v>
       </c>
       <c r="AQ123" s="25" t="n">
         <v>0.0</v>
@@ -42521,7 +42521,7 @@
         <v>1.972577261646E12</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>2.006869400272E12</v>
+        <v>1.966999544521E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>5.76469653591E11</v>
@@ -42617,7 +42617,7 @@
         <v>6.35171076934E11</v>
       </c>
       <c r="AP124" s="25" t="n">
-        <v>5.54495999204E11</v>
+        <v>5.14626143453E11</v>
       </c>
       <c r="AQ124" s="25" t="n">
         <v>3.8150079475E11</v>
@@ -42655,7 +42655,7 @@
         <v>1.972577261646E12</v>
       </c>
       <c r="I125" s="25" t="n">
-        <v>2.006869400272E12</v>
+        <v>1.954176404993E12</v>
       </c>
       <c r="K125" s="25" t="n">
         <v>5.76469653591E11</v>
@@ -42751,7 +42751,7 @@
         <v>6.35171076934E11</v>
       </c>
       <c r="AP125" s="25" t="n">
-        <v>5.54495999204E11</v>
+        <v>5.01803003925E11</v>
       </c>
       <c r="AQ125" s="25" t="n">
         <v>3.8150079475E11</v>
@@ -42789,7 +42789,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>0.0</v>
+        <v>1.2823139528E10</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>0.0</v>
@@ -42885,7 +42885,7 @@
         <v>0.0</v>
       </c>
       <c r="AP126" s="25" t="n">
-        <v>0.0</v>
+        <v>1.2823139528E10</v>
       </c>
       <c r="AQ126" s="25" t="n">
         <v>0.0</v>
@@ -43057,7 +43057,7 @@
         <v>9.34058037E8</v>
       </c>
       <c r="I128" s="25" t="n">
-        <v>2.09525995E8</v>
+        <v>0.0</v>
       </c>
       <c r="K128" s="25" t="n">
         <v>4.7814438E8</v>
@@ -43459,7 +43459,7 @@
         <v>9.34058037E8</v>
       </c>
       <c r="I131" s="25" t="n">
-        <v>2.09525995E8</v>
+        <v>0.0</v>
       </c>
       <c r="K131" s="25" t="n">
         <v>0.0</v>
@@ -43995,7 +43995,7 @@
         <v>2.007019211752E12</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>2.008645879775E12</v>
+        <v>1.972027999068E12</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>0.0</v>
@@ -44091,7 +44091,7 @@
         <v>6.27346770998E11</v>
       </c>
       <c r="AP135" s="25" t="n">
-        <v>5.60646756677E11</v>
+        <v>5.45667315457E11</v>
       </c>
       <c r="AQ135" s="25" t="n">
         <v>3.85988179967E11</v>
@@ -44129,7 +44129,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>0.0</v>
+        <v>1.113565759E9</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>0.0</v>
@@ -44225,7 +44225,7 @@
         <v>0.0</v>
       </c>
       <c r="AP136" s="25" t="n">
-        <v>0.0</v>
+        <v>1.113565759E9</v>
       </c>
       <c r="AQ136" s="25" t="n">
         <v>3.85988179967E11</v>
@@ -44263,7 +44263,7 @@
         <v>2.007019211752E12</v>
       </c>
       <c r="I137" s="25" t="n">
-        <v>2.008645879775E12</v>
+        <v>1.969608469661E12</v>
       </c>
       <c r="K137" s="25" t="n">
         <v>0.0</v>
@@ -44359,7 +44359,7 @@
         <v>6.27346770998E11</v>
       </c>
       <c r="AP137" s="25" t="n">
-        <v>5.60646756677E11</v>
+        <v>5.4324778605E11</v>
       </c>
       <c r="AQ137" s="25" t="n">
         <v>0.0</v>
@@ -44397,7 +44397,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>0.0</v>
+        <v>1.305963648E9</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>0.0</v>
@@ -44493,7 +44493,7 @@
         <v>0.0</v>
       </c>
       <c r="AP138" s="25" t="n">
-        <v>0.0</v>
+        <v>1.305963648E9</v>
       </c>
       <c r="AQ138" s="25" t="n">
         <v>0.0</v>
@@ -45201,7 +45201,7 @@
         <v>2.136571684E9</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>3.07890573E8</v>
+        <v>0.0</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>1.802865647E9</v>
@@ -46407,7 +46407,7 @@
         <v>2.136571684E9</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>3.07890573E8</v>
+        <v>0.0</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>1.802865647E9</v>
@@ -46541,7 +46541,7 @@
         <v>1.0152722937E11</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>0.0</v>
+        <v>7.895538146E10</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>1.6151441791E10</v>
@@ -46675,7 +46675,7 @@
         <v>9.8801572707E10</v>
       </c>
       <c r="I155" s="25" t="n">
-        <v>0.0</v>
+        <v>7.3585644369E10</v>
       </c>
       <c r="K155" s="25" t="n">
         <v>1.52632994E10</v>
@@ -47211,7 +47211,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="25" t="n">
-        <v>0.0</v>
+        <v>5.369737091E9</v>
       </c>
       <c r="K159" s="25" t="n">
         <v>0.0</v>
@@ -47747,7 +47747,7 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>0.0</v>
+        <v>2.019863317491E12</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>0.0</v>
@@ -47881,7 +47881,7 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>0.0</v>
+        <v>8.84180973225E11</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>0.0</v>
@@ -48015,7 +48015,7 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3151841244E10</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>0.0</v>
@@ -48149,7 +48149,7 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>0.0</v>
+        <v>5.9806279829E10</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>0.0</v>
@@ -48283,7 +48283,7 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>0.0</v>
+        <v>1.6258625642E10</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>0.0</v>
@@ -48417,7 +48417,7 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>0.0</v>
+        <v>1.046465597551E12</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>0.0</v>

--- a/data/DTL.xlsx
+++ b/data/DTL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>DTL</t>

--- a/data/DTL.xlsx
+++ b/data/DTL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>DTL</t>

--- a/data/DTL.xlsx
+++ b/data/DTL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>DTL</t>
